--- a/xlsx/巧克力_intext.xlsx
+++ b/xlsx/巧克力_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
   <si>
     <t>巧克力</t>
   </si>
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E6%85%8B</t>
   </si>
   <si>
-    <t>固態</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_巧克力</t>
+    <t>固态</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_巧克力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%85%8B</t>
   </si>
   <si>
-    <t>液態</t>
+    <t>液态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1%E7%9C%81</t>
   </si>
   <si>
-    <t>廣東省</t>
+    <t>广东省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>食物熱量</t>
+    <t>食物热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E7%B1%BB</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B1%E7%B2%89</t>
   </si>
   <si>
-    <t>澱粉</t>
+    <t>淀粉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>膳食纖維</t>
+    <t>膳食纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%82%AA</t>
@@ -77,37 +77,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>飽和脂肪</t>
+    <t>饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%85%83%E4%B8%8D%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>單元不飽和脂肪</t>
+    <t>单元不饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E4%B8%8D%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>多元不飽和脂肪</t>
+    <t>多元不饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0A</t>
   </si>
   <si>
-    <t>維生素A</t>
+    <t>维生素A</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%CE%92-%E8%83%A1%E8%90%9D%E5%8D%9C%E7%B4%A0</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B8%E9%B9%BC%E9%85%B8</t>
   </si>
   <si>
-    <t>菸鹼酸</t>
+    <t>菸碱酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%85%B8</t>
@@ -161,67 +161,67 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0D</t>
   </si>
   <si>
-    <t>維生素D</t>
+    <t>维生素D</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0E</t>
   </si>
   <si>
-    <t>維生素E</t>
+    <t>维生素E</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0K</t>
   </si>
   <si>
-    <t>維生素K</t>
+    <t>维生素K</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>膳食礦物質</t>
+    <t>膳食矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%A3%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>鈣營養</t>
+    <t>钙营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B3%AA</t>
   </si>
   <si>
-    <t>鐵質</t>
+    <t>铁质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%82</t>
   </si>
   <si>
-    <t>鎂</t>
+    <t>镁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%B7%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>磷營養</t>
+    <t>磷营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%80</t>
   </si>
   <si>
-    <t>鉀</t>
+    <t>钾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%89</t>
   </si>
   <si>
-    <t>鈉</t>
+    <t>钠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%85</t>
   </si>
   <si>
-    <t>鋅</t>
+    <t>锌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%BD%E5%9B%BA%E9%86%87</t>
   </si>
   <si>
-    <t>膽固醇</t>
+    <t>胆固醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>食物纖維</t>
+    <t>食物纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B4%A0</t>
@@ -311,19 +311,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AF%E7%B7%9A</t>
   </si>
   <si>
-    <t>緯線</t>
+    <t>纬线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BB%96%E5%91%BDC</t>
   </si>
   <si>
-    <t>維他命C</t>
+    <t>维他命C</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%AF%E4%B9%99%E8%83%BA</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E6%84%9B</t>
   </si>
   <si>
-    <t>戀愛</t>
+    <t>恋爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%AF%E8%84%82</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E7%89%B9%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>納瓦特爾語</t>
+    <t>纳瓦特尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%8D%A1%E5%9D%A6%E7%8E%9B%E9%9B%85%E8%AF%AD</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A7%E5%85%8B%E5%8A%9B%E7%9A%84%E6%BC%94%E8%AE%8A%E5%8F%B2</t>
   </si>
   <si>
-    <t>巧克力的演變史</t>
+    <t>巧克力的演变史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E4%BA%BA</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>哥倫布</t>
+    <t>哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E4%BA%BA</t>
   </si>
   <si>
-    <t>義大利人</t>
+    <t>义大利人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%B3</t>
   </si>
   <si>
-    <t>錳</t>
+    <t>锰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E5%9B%A0</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E5%A3%93</t>
   </si>
   <si>
-    <t>血壓</t>
+    <t>血压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%85%AE</t>
@@ -617,25 +617,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F%E7%97%85</t>
   </si>
   <si>
-    <t>心臟病</t>
+    <t>心脏病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9</t>
   </si>
   <si>
-    <t>斯德哥爾摩</t>
+    <t>斯德哥尔摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>雜誌</t>
+    <t>杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%9B</t>
   </si>
   <si>
-    <t>鉛</t>
+    <t>铅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Health_effects_of_chocolate</t>
@@ -653,25 +653,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC</t>
   </si>
   <si>
-    <t>馬</t>
+    <t>马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B8%9A%E9%B5%A1</t>
   </si>
   <si>
-    <t>鸚鵡</t>
+    <t>鹦鹉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93</t>
   </si>
   <si>
-    <t>貓</t>
+    <t>猫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%A9%E6%9A%88_(%E9%86%AB%E5%AD%B8)</t>
   </si>
   <si>
-    <t>眩暈 (醫學)</t>
+    <t>眩晕 (医学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%95%E5%90%90</t>
@@ -689,13 +689,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%B2%E7%99%87</t>
   </si>
   <si>
-    <t>癲癇</t>
+    <t>癫痫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%87%BA%E8%A1%80</t>
   </si>
   <si>
-    <t>內出血</t>
+    <t>内出血</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E5%A6%A5</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E9%B9%BC</t>
   </si>
   <si>
-    <t>茶鹼</t>
+    <t>茶碱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E8%83%BA%E6%B0%A7%E5%8C%96%E9%85%B6</t>
@@ -791,19 +791,19 @@
     <t>https://ja.wikipedia.org/wiki/%E4%B8%8D%E7%95%B6%E6%99%AF%E5%93%81%E9%A1%9E%E5%8F%8A%E4%B8%8D%E7%95%B6%E8%A1%A8%E7%A4%BA%E9%98%B2%E6%AD%A2%E6%B3%95</t>
   </si>
   <si>
-    <t>ja-不當景品類及不當表示防止法</t>
+    <t>ja-不当景品类及不当表示防止法</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%85%AC%E6%AD%A3%E5%8F%96%E5%BC%95%E5%8D%94%E8%AD%B0%E4%BC%9A</t>
   </si>
   <si>
-    <t>ja-公正取引協議会</t>
+    <t>ja-公正取引协议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F%E7%A6%8F%E5%88%A9%E9%83%A8%E9%A3%9F%E5%93%81%E8%97%A5%E7%89%A9%E7%AE%A1%E7%90%86%E7%BD%B2</t>
   </si>
   <si>
-    <t>衛生福利部食品藥物管理署</t>
+    <t>卫生福利部食品药物管理署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0B2</t>
   </si>
   <si>
-    <t>維生素B2</t>
+    <t>维生素B2</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%8D%A1</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%99%B3%E4%BB%A3%E8%AC%9D</t>
   </si>
   <si>
-    <t>新陳代謝</t>
+    <t>新陈代谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AC</t>
@@ -845,9 +845,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AB</t>
   </si>
   <si>
-    <t>猫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%97</t>
   </si>
   <si>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%99%82</t>
   </si>
   <si>
-    <t>好時</t>
+    <t>好时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Neuhaus</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E6%B0%8F%E9%A3%9F%E5%93%81</t>
   </si>
   <si>
-    <t>瑪氏食品</t>
+    <t>玛氏食品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Godiva</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A7%E5%85%8B%E5%8A%9B%E7%99%AE</t>
   </si>
   <si>
-    <t>巧克力癮</t>
+    <t>巧克力瘾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harold_McGee</t>
@@ -977,31 +974,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BE%B2%E6%A5%AD%E9%83%A8</t>
   </si>
   <si>
-    <t>美國農業部</t>
+    <t>美国农业部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%9A%E8%A8%8A%E7%A4%BE</t>
   </si>
   <si>
-    <t>中央通訊社</t>
+    <t>中央通讯社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%A0%B1</t>
   </si>
   <si>
-    <t>聯合報</t>
+    <t>联合报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1854,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -1886,7 +1883,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -1915,7 +1912,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -1944,7 +1941,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -2002,7 +1999,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -2031,7 +2028,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -2495,7 +2492,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -4032,7 +4029,7 @@
         <v>180</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -5421,7 +5418,7 @@
         <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5447,10 +5444,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>11</v>
@@ -5476,10 +5473,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -5505,10 +5502,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5534,10 +5531,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5563,10 +5560,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5592,10 +5589,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5621,10 +5618,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5650,10 +5647,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5679,10 +5676,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5708,10 +5705,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5737,10 +5734,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5766,10 +5763,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5795,10 +5792,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5824,10 +5821,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5853,10 +5850,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5882,10 +5879,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5911,10 +5908,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" t="s">
         <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5940,10 +5937,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s">
         <v>311</v>
-      </c>
-      <c r="F158" t="s">
-        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5969,10 +5966,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
         <v>313</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5998,10 +5995,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="s">
         <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6027,10 +6024,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6085,10 +6082,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -6114,10 +6111,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6143,10 +6140,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6172,10 +6169,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6201,10 +6198,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6230,10 +6227,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6259,10 +6256,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6288,10 +6285,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>

--- a/xlsx/巧克力_intext.xlsx
+++ b/xlsx/巧克力_intext.xlsx
@@ -29,7 +29,7 @@
     <t>固態</t>
   </si>
   <si>
-    <t>政策_政策_美國_巧克力</t>
+    <t>体育运动_体育运动_路尔斯·艾拔图·苏亚雷斯_巧克力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%85%8B</t>
